--- a/Marijuana_Decriminilization_Status_Fraction_Of_Year_Legalized_by_city.xlsx
+++ b/Marijuana_Decriminilization_Status_Fraction_Of_Year_Legalized_by_city.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse's PC\Documents\UW MPA\Y2 Q1\529\529_DD_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74695173-43BD-4D10-9B23-E2E4D8BEC5D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADE1A4C-E5A0-4ECE-804F-DA5C2EADEEDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{E7D73D33-65BC-48E4-83C1-61B8CF6FB1D1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="203">
   <si>
     <t>Alabama</t>
   </si>
@@ -640,6 +640,9 @@
   </si>
   <si>
     <t>ACS_city_name</t>
+  </si>
+  <si>
+    <t>Columbus</t>
   </si>
 </sst>
 </file>
@@ -1015,21 +1018,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2E9A60-D8A1-4D60-8431-7F12FF08D4A0}">
-  <dimension ref="A1:J321"/>
+  <dimension ref="A1:K321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D112" sqref="D112"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="22.59765625" customWidth="1"/>
     <col min="2" max="2" width="22.59765625" style="4" customWidth="1"/>
-    <col min="3" max="10" width="17.1328125" style="3" customWidth="1"/>
+    <col min="3" max="11" width="17.1328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1037,29 +1040,32 @@
         <v>201</v>
       </c>
       <c r="C1" s="2">
+        <v>2009</v>
+      </c>
+      <c r="D1" s="2">
         <v>2010</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>2011</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>2012</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>2013</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>2014</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>2015</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>2016</v>
       </c>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1087,8 +1093,11 @@
       <c r="I2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1116,8 +1125,11 @@
       <c r="I3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1145,8 +1157,11 @@
       <c r="I4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1174,8 +1189,11 @@
       <c r="I5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1203,8 +1221,11 @@
       <c r="I6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1232,8 +1253,11 @@
       <c r="I7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1261,8 +1285,11 @@
       <c r="I8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1290,8 +1317,11 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1319,8 +1349,11 @@
       <c r="I10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1348,8 +1381,11 @@
       <c r="I11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1377,8 +1413,11 @@
       <c r="I12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1406,8 +1445,11 @@
       <c r="I13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1435,8 +1477,11 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1464,8 +1509,11 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1476,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" ref="D16:D45" si="0">1-(YEARFRAC("1-Jan-2011", "1-Jan-2011"))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3">
+        <f t="shared" ref="E16:E45" si="0">1-(YEARFRAC("1-Jan-2011", "1-Jan-2011"))</f>
         <v>1</v>
       </c>
       <c r="F16" s="3">
@@ -1494,8 +1542,11 @@
       <c r="I16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1506,12 +1557,12 @@
         <v>0</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
       <c r="F17" s="3">
         <v>1</v>
       </c>
@@ -1524,8 +1575,11 @@
       <c r="I17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1536,12 +1590,12 @@
         <v>0</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
       <c r="F18" s="3">
         <v>1</v>
       </c>
@@ -1554,8 +1608,11 @@
       <c r="I18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1566,12 +1623,12 @@
         <v>0</v>
       </c>
       <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
       <c r="F19" s="3">
         <v>1</v>
       </c>
@@ -1584,8 +1641,11 @@
       <c r="I19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1596,12 +1656,12 @@
         <v>0</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
       <c r="F20" s="3">
         <v>1</v>
       </c>
@@ -1614,8 +1674,11 @@
       <c r="I20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1626,12 +1689,12 @@
         <v>0</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
       <c r="F21" s="3">
         <v>1</v>
       </c>
@@ -1644,8 +1707,11 @@
       <c r="I21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1656,12 +1722,12 @@
         <v>0</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
       <c r="F22" s="3">
         <v>1</v>
       </c>
@@ -1674,8 +1740,11 @@
       <c r="I22" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1686,12 +1755,12 @@
         <v>0</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
       <c r="F23" s="3">
         <v>1</v>
       </c>
@@ -1704,8 +1773,11 @@
       <c r="I23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1716,12 +1788,12 @@
         <v>0</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
       <c r="F24" s="3">
         <v>1</v>
       </c>
@@ -1734,8 +1806,11 @@
       <c r="I24" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1746,12 +1821,12 @@
         <v>0</v>
       </c>
       <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
       <c r="F25" s="3">
         <v>1</v>
       </c>
@@ -1764,8 +1839,11 @@
       <c r="I25" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1776,12 +1854,12 @@
         <v>0</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
       <c r="F26" s="3">
         <v>1</v>
       </c>
@@ -1794,8 +1872,11 @@
       <c r="I26" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -1806,12 +1887,12 @@
         <v>0</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
       <c r="F27" s="3">
         <v>1</v>
       </c>
@@ -1824,8 +1905,11 @@
       <c r="I27" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1836,12 +1920,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
       <c r="F28" s="3">
         <v>1</v>
       </c>
@@ -1854,8 +1938,11 @@
       <c r="I28" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -1866,12 +1953,12 @@
         <v>0</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
       <c r="F29" s="3">
         <v>1</v>
       </c>
@@ -1884,8 +1971,11 @@
       <c r="I29" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1896,12 +1986,12 @@
         <v>0</v>
       </c>
       <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
       <c r="F30" s="3">
         <v>1</v>
       </c>
@@ -1914,8 +2004,11 @@
       <c r="I30" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1926,12 +2019,12 @@
         <v>0</v>
       </c>
       <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
       <c r="F31" s="3">
         <v>1</v>
       </c>
@@ -1944,8 +2037,11 @@
       <c r="I31" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -1956,12 +2052,12 @@
         <v>0</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
       <c r="F32" s="3">
         <v>1</v>
       </c>
@@ -1974,8 +2070,11 @@
       <c r="I32" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1986,12 +2085,12 @@
         <v>0</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
       <c r="F33" s="3">
         <v>1</v>
       </c>
@@ -2004,8 +2103,11 @@
       <c r="I33" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -2016,12 +2118,12 @@
         <v>0</v>
       </c>
       <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
       <c r="F34" s="3">
         <v>1</v>
       </c>
@@ -2034,8 +2136,11 @@
       <c r="I34" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -2046,12 +2151,12 @@
         <v>0</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
       <c r="F35" s="3">
         <v>1</v>
       </c>
@@ -2064,8 +2169,11 @@
       <c r="I35" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -2076,12 +2184,12 @@
         <v>0</v>
       </c>
       <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
       <c r="F36" s="3">
         <v>1</v>
       </c>
@@ -2094,8 +2202,11 @@
       <c r="I36" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -2106,12 +2217,12 @@
         <v>0</v>
       </c>
       <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
       <c r="F37" s="3">
         <v>1</v>
       </c>
@@ -2124,8 +2235,11 @@
       <c r="I37" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -2136,12 +2250,12 @@
         <v>0</v>
       </c>
       <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
       <c r="F38" s="3">
         <v>1</v>
       </c>
@@ -2154,8 +2268,11 @@
       <c r="I38" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -2166,12 +2283,12 @@
         <v>0</v>
       </c>
       <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
       <c r="F39" s="3">
         <v>1</v>
       </c>
@@ -2184,8 +2301,11 @@
       <c r="I39" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -2196,12 +2316,12 @@
         <v>0</v>
       </c>
       <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
       <c r="F40" s="3">
         <v>1</v>
       </c>
@@ -2214,8 +2334,11 @@
       <c r="I40" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -2226,12 +2349,12 @@
         <v>0</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
       <c r="F41" s="3">
         <v>1</v>
       </c>
@@ -2244,8 +2367,11 @@
       <c r="I41" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -2256,12 +2382,12 @@
         <v>0</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
       <c r="F42" s="3">
         <v>1</v>
       </c>
@@ -2274,8 +2400,11 @@
       <c r="I42" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -2286,12 +2415,12 @@
         <v>0</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
       <c r="F43" s="3">
         <v>1</v>
       </c>
@@ -2304,8 +2433,11 @@
       <c r="I43" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -2316,12 +2448,12 @@
         <v>0</v>
       </c>
       <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
       <c r="F44" s="3">
         <v>1</v>
       </c>
@@ -2334,8 +2466,11 @@
       <c r="I44" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -2346,12 +2481,12 @@
         <v>18</v>
       </c>
       <c r="D45" s="3">
+        <v>18</v>
+      </c>
+      <c r="E45" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
       <c r="F45" s="3">
         <v>1</v>
       </c>
@@ -2364,8 +2499,11 @@
       <c r="I45" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -2379,12 +2517,12 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <f>1-(YEARFRAC("1-Jan-2012", "10-Dec-2012"))</f>
         <v>5.8333333333333348E-2</v>
       </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
       <c r="G46" s="3">
         <v>1</v>
       </c>
@@ -2394,8 +2532,11 @@
       <c r="I46" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -2409,12 +2550,12 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <f>1-(YEARFRAC("1-Jan-2012", "10-Dec-2012"))</f>
         <v>5.8333333333333348E-2</v>
       </c>
-      <c r="F47" s="3">
-        <v>1</v>
-      </c>
       <c r="G47" s="3">
         <v>1</v>
       </c>
@@ -2424,8 +2565,11 @@
       <c r="I47" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2439,12 +2583,12 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
         <f>1-(YEARFRAC("1-Jan-2012", "10-Dec-2012"))</f>
         <v>5.8333333333333348E-2</v>
       </c>
-      <c r="F48" s="3">
-        <v>1</v>
-      </c>
       <c r="G48" s="3">
         <v>1</v>
       </c>
@@ -2454,8 +2598,11 @@
       <c r="I48" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -2464,12 +2611,12 @@
         <v>0</v>
       </c>
       <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
         <f>1-(YEARFRAC("1-Jan-2011", "1-Jul-2011"))</f>
         <v>0.5</v>
       </c>
-      <c r="E49" s="3">
-        <v>1</v>
-      </c>
       <c r="F49" s="3">
         <v>1</v>
       </c>
@@ -2482,8 +2629,11 @@
       <c r="I49" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2504,14 +2654,17 @@
         <v>0</v>
       </c>
       <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3">
         <f>1-(YEARFRAC("1-Jan-2015", "18-Dec-2015"))</f>
         <v>3.6111111111111094E-2</v>
       </c>
-      <c r="I50" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -2531,17 +2684,20 @@
         <v>0</v>
       </c>
       <c r="G51" s="3">
+        <v>0</v>
+      </c>
+      <c r="H51" s="3">
         <f>1-(YEARFRAC("1-Jan-2014", "1-Jul-2014"))</f>
         <v>0.5</v>
       </c>
-      <c r="H51" s="3">
-        <v>1</v>
-      </c>
       <c r="I51" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2569,8 +2725,11 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -2598,8 +2757,11 @@
       <c r="I53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="I54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>50</v>
       </c>
@@ -2656,8 +2821,11 @@
       <c r="I55" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -2685,8 +2853,11 @@
       <c r="I56" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>50</v>
       </c>
@@ -2714,8 +2885,11 @@
       <c r="I57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>50</v>
       </c>
@@ -2743,8 +2917,11 @@
       <c r="I58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>50</v>
       </c>
@@ -2772,8 +2949,11 @@
       <c r="I59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>50</v>
       </c>
@@ -2801,8 +2981,11 @@
       <c r="I60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>50</v>
       </c>
@@ -2830,8 +3013,11 @@
       <c r="I61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -2859,8 +3045,11 @@
       <c r="I62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2888,8 +3077,11 @@
       <c r="I63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -2917,8 +3109,11 @@
       <c r="I64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -2946,8 +3141,11 @@
       <c r="I65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -2975,8 +3173,11 @@
       <c r="I66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -3002,11 +3203,14 @@
         <v>0</v>
       </c>
       <c r="I67" s="3">
+        <v>0</v>
+      </c>
+      <c r="J67" s="3">
         <f>1-(YEARFRAC("1-Jan-2016", "1-Jul-2016"))</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -3032,11 +3236,14 @@
         <v>0</v>
       </c>
       <c r="I68" s="3">
-        <f t="shared" ref="I68:I69" si="1">1-(YEARFRAC("1-Jan-2016", "1-Jul-2016"))</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="3">
+        <f t="shared" ref="J68:J69" si="1">1-(YEARFRAC("1-Jan-2016", "1-Jul-2016"))</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -3062,11 +3269,14 @@
         <v>0</v>
       </c>
       <c r="I69" s="3">
+        <v>0</v>
+      </c>
+      <c r="J69" s="3">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -3094,8 +3304,11 @@
       <c r="I70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -3123,8 +3336,11 @@
       <c r="I71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -3152,8 +3368,11 @@
       <c r="I72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -3181,8 +3400,11 @@
       <c r="I73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>14</v>
       </c>
@@ -3210,8 +3432,11 @@
       <c r="I74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>15</v>
       </c>
@@ -3239,8 +3464,11 @@
       <c r="I75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -3266,11 +3494,14 @@
         <v>0</v>
       </c>
       <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
         <f>1-(YEARFRAC("1-Jan-2016", "21-Jun-2016"))</f>
         <v>0.52777777777777779</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -3298,8 +3529,11 @@
       <c r="I77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -3327,8 +3561,11 @@
       <c r="I78" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -3354,8 +3591,11 @@
       <c r="I79" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -3375,17 +3615,20 @@
         <v>0</v>
       </c>
       <c r="G80" s="3">
+        <v>0</v>
+      </c>
+      <c r="H80" s="3">
         <f>1-(YEARFRAC("1-Jan-2014", "1-Oct-2014"))</f>
         <v>0.25</v>
       </c>
-      <c r="H80" s="3">
-        <v>1</v>
-      </c>
       <c r="I80" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J80" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -3413,8 +3656,11 @@
       <c r="I81" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J81" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>19</v>
       </c>
@@ -3442,8 +3688,11 @@
       <c r="I82" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J82" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -3471,8 +3720,11 @@
       <c r="I83" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J83" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -3486,12 +3738,12 @@
         <v>0</v>
       </c>
       <c r="E84" s="3">
+        <v>0</v>
+      </c>
+      <c r="F84" s="3">
         <f>1-(YEARFRAC("1-Jan-2012", "1-Nov-2012"))</f>
         <v>0.16666666666666663</v>
       </c>
-      <c r="F84" s="3">
-        <v>1</v>
-      </c>
       <c r="G84" s="3">
         <v>1</v>
       </c>
@@ -3501,8 +3753,11 @@
       <c r="I84" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J84" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -3516,12 +3771,12 @@
         <v>0</v>
       </c>
       <c r="E85" s="3">
+        <v>0</v>
+      </c>
+      <c r="F85" s="3">
         <f>1-(YEARFRAC("1-Jan-2012", "1-Nov-2012"))</f>
         <v>0.16666666666666663</v>
       </c>
-      <c r="F85" s="3">
-        <v>1</v>
-      </c>
       <c r="G85" s="3">
         <v>1</v>
       </c>
@@ -3531,8 +3786,11 @@
       <c r="I85" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J85" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -3560,8 +3818,11 @@
       <c r="I86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -3589,8 +3850,11 @@
       <c r="I87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>22</v>
       </c>
@@ -3618,8 +3882,11 @@
       <c r="I88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>23</v>
       </c>
@@ -3647,8 +3914,11 @@
       <c r="I89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>23</v>
       </c>
@@ -3676,8 +3946,11 @@
       <c r="I90" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J90" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>23</v>
       </c>
@@ -3705,8 +3978,11 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>24</v>
       </c>
@@ -3732,8 +4008,11 @@
       <c r="I92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>25</v>
       </c>
@@ -3761,8 +4040,11 @@
       <c r="I93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>25</v>
       </c>
@@ -3790,8 +4072,11 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>26</v>
       </c>
@@ -3819,8 +4104,11 @@
       <c r="I95" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J95" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>26</v>
       </c>
@@ -3848,8 +4136,11 @@
       <c r="I96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>26</v>
       </c>
@@ -3877,8 +4168,11 @@
       <c r="I97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>26</v>
       </c>
@@ -3906,8 +4200,11 @@
       <c r="I98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>26</v>
       </c>
@@ -3935,8 +4232,11 @@
       <c r="I99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>26</v>
       </c>
@@ -3964,8 +4264,11 @@
       <c r="I100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>26</v>
       </c>
@@ -3993,8 +4296,11 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>27</v>
       </c>
@@ -4020,8 +4326,11 @@
       <c r="I102" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>28</v>
       </c>
@@ -4049,8 +4358,11 @@
       <c r="I103" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J103" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>28</v>
       </c>
@@ -4078,8 +4390,11 @@
       <c r="I104" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J104" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>29</v>
       </c>
@@ -4107,8 +4422,11 @@
       <c r="I105" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J105" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>30</v>
       </c>
@@ -4136,8 +4454,11 @@
       <c r="I106" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J106" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>30</v>
       </c>
@@ -4165,8 +4486,11 @@
       <c r="I107" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J107" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>30</v>
       </c>
@@ -4194,8 +4518,11 @@
       <c r="I108" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J108" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>30</v>
       </c>
@@ -4223,8 +4550,11 @@
       <c r="I109" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J109" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -4252,8 +4582,11 @@
       <c r="I110" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J110" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>31</v>
       </c>
@@ -4281,8 +4614,11 @@
       <c r="I111" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J111" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>31</v>
       </c>
@@ -4310,8 +4646,11 @@
       <c r="I112" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J112" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>31</v>
       </c>
@@ -4339,8 +4678,11 @@
       <c r="I113" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J113" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>31</v>
       </c>
@@ -4368,8 +4710,11 @@
       <c r="I114" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J114" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>31</v>
       </c>
@@ -4397,8 +4742,11 @@
       <c r="I115" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J115" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>32</v>
       </c>
@@ -4424,13 +4772,16 @@
       <c r="I116" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J116" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>33</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="C117" s="3">
         <v>0</v>
@@ -4453,8 +4804,11 @@
       <c r="I117" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J117" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>33</v>
       </c>
@@ -4482,8 +4836,11 @@
       <c r="I118" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J118" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>33</v>
       </c>
@@ -4511,8 +4868,11 @@
       <c r="I119" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J119" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>33</v>
       </c>
@@ -4535,14 +4895,17 @@
         <v>0</v>
       </c>
       <c r="H120" s="3">
+        <v>0</v>
+      </c>
+      <c r="I120" s="3">
         <f>1-(YEARFRAC("1-Jan-2015", "6-Nov-2015"))</f>
         <v>0.15277777777777779</v>
       </c>
-      <c r="I120" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J120" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>33</v>
       </c>
@@ -4570,8 +4933,11 @@
       <c r="I121" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J121" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>34</v>
       </c>
@@ -4599,8 +4965,11 @@
       <c r="I122" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J122" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>34</v>
       </c>
@@ -4628,8 +4997,11 @@
       <c r="I123" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J123" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>35</v>
       </c>
@@ -4652,14 +5024,17 @@
         <v>0</v>
       </c>
       <c r="H124" s="3">
+        <v>0</v>
+      </c>
+      <c r="I124" s="3">
         <f>1-(YEARFRAC("1-Jan-2015", "1-Jul-2015"))</f>
         <v>0.5</v>
       </c>
-      <c r="I124" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J124" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>35</v>
       </c>
@@ -4682,14 +5057,17 @@
         <v>0</v>
       </c>
       <c r="H125" s="3">
-        <f t="shared" ref="H125:H126" si="2">1-(YEARFRAC("1-Jan-2015", "1-Jul-2015"))</f>
+        <v>0</v>
+      </c>
+      <c r="I125" s="3">
+        <f t="shared" ref="I125:I126" si="2">1-(YEARFRAC("1-Jan-2015", "1-Jul-2015"))</f>
         <v>0.5</v>
       </c>
-      <c r="I125" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J125" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>35</v>
       </c>
@@ -4712,14 +5090,17 @@
         <v>0</v>
       </c>
       <c r="H126" s="3">
+        <v>0</v>
+      </c>
+      <c r="I126" s="3">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="I126" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J126" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -4742,14 +5123,17 @@
         <v>0</v>
       </c>
       <c r="H127" s="3">
+        <v>0</v>
+      </c>
+      <c r="I127" s="3">
         <f>1-(YEARFRAC("1-Jan-2015", "1-Sep-2015"))</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="I127" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J127" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>36</v>
       </c>
@@ -4775,10 +5159,13 @@
         <v>0</v>
       </c>
       <c r="I128" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="J128" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>37</v>
       </c>
@@ -4795,20 +5182,23 @@
         <v>0</v>
       </c>
       <c r="F129" s="3">
+        <v>0</v>
+      </c>
+      <c r="G129" s="3">
         <f>1-(YEARFRAC("1-Jan-2013", "1-Apr-2013"))</f>
         <v>0.75</v>
       </c>
-      <c r="G129" s="3">
-        <v>1</v>
-      </c>
       <c r="H129" s="3">
         <v>1</v>
       </c>
       <c r="I129" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J129" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>38</v>
       </c>
@@ -4834,8 +5224,11 @@
       <c r="I130" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J130" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>39</v>
       </c>
@@ -4861,8 +5254,11 @@
       <c r="I131" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J131" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>40</v>
       </c>
@@ -4890,8 +5286,11 @@
       <c r="I132" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J132" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>40</v>
       </c>
@@ -4919,8 +5318,11 @@
       <c r="I133" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J133" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>40</v>
       </c>
@@ -4948,8 +5350,11 @@
       <c r="I134" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J134" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>40</v>
       </c>
@@ -4977,8 +5382,11 @@
       <c r="I135" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J135" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>41</v>
       </c>
@@ -5006,8 +5414,11 @@
       <c r="I136" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J136" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>41</v>
       </c>
@@ -5035,8 +5446,11 @@
       <c r="I137" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J137" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>41</v>
       </c>
@@ -5064,8 +5478,11 @@
       <c r="I138" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J138" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>41</v>
       </c>
@@ -5093,8 +5510,11 @@
       <c r="I139" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J139" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>41</v>
       </c>
@@ -5122,8 +5542,11 @@
       <c r="I140" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J140" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>41</v>
       </c>
@@ -5151,8 +5574,11 @@
       <c r="I141" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J141" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>41</v>
       </c>
@@ -5180,8 +5606,11 @@
       <c r="I142" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J142" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>41</v>
       </c>
@@ -5209,8 +5638,11 @@
       <c r="I143" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J143" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>41</v>
       </c>
@@ -5238,8 +5670,11 @@
       <c r="I144" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J144" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>41</v>
       </c>
@@ -5267,8 +5702,11 @@
       <c r="I145" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J145" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>41</v>
       </c>
@@ -5296,8 +5734,11 @@
       <c r="I146" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J146" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>41</v>
       </c>
@@ -5325,8 +5766,11 @@
       <c r="I147" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J147" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>41</v>
       </c>
@@ -5354,8 +5798,11 @@
       <c r="I148" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J148" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>41</v>
       </c>
@@ -5383,8 +5830,11 @@
       <c r="I149" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J149" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>41</v>
       </c>
@@ -5412,8 +5862,11 @@
       <c r="I150" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J150" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>41</v>
       </c>
@@ -5441,8 +5894,11 @@
       <c r="I151" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J151" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>42</v>
       </c>
@@ -5470,8 +5926,11 @@
       <c r="I152" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J152" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>43</v>
       </c>
@@ -5486,20 +5945,23 @@
         <v>0</v>
       </c>
       <c r="F153" s="3">
+        <v>0</v>
+      </c>
+      <c r="G153" s="3">
         <f>1-(YEARFRAC("1-Jan-2013", "1-Jul-2013"))</f>
         <v>0.5</v>
       </c>
-      <c r="G153" s="3">
-        <v>1</v>
-      </c>
       <c r="H153" s="3">
         <v>1</v>
       </c>
       <c r="I153" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J153" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>44</v>
       </c>
@@ -5527,8 +5989,11 @@
       <c r="I154" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J154" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>44</v>
       </c>
@@ -5556,8 +6021,11 @@
       <c r="I155" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J155" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>44</v>
       </c>
@@ -5585,8 +6053,11 @@
       <c r="I156" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J156" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>44</v>
       </c>
@@ -5614,8 +6085,11 @@
       <c r="I157" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J157" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>44</v>
       </c>
@@ -5643,8 +6117,11 @@
       <c r="I158" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J158" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>44</v>
       </c>
@@ -5672,8 +6149,11 @@
       <c r="I159" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J159" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>45</v>
       </c>
@@ -5687,12 +6167,12 @@
         <v>0</v>
       </c>
       <c r="E160" s="3">
+        <v>0</v>
+      </c>
+      <c r="F160" s="3">
         <f>1-(YEARFRAC("1-Jan-2012", "6-Dec-2012"))</f>
         <v>6.944444444444442E-2</v>
       </c>
-      <c r="F160" s="3">
-        <v>1</v>
-      </c>
       <c r="G160" s="3">
         <v>1</v>
       </c>
@@ -5702,8 +6182,11 @@
       <c r="I160" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J160" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>45</v>
       </c>
@@ -5717,12 +6200,12 @@
         <v>0</v>
       </c>
       <c r="E161" s="3">
-        <f t="shared" ref="E161:E163" si="3">1-(YEARFRAC("1-Jan-2012", "6-Dec-2012"))</f>
+        <v>0</v>
+      </c>
+      <c r="F161" s="3">
+        <f t="shared" ref="F161:F163" si="3">1-(YEARFRAC("1-Jan-2012", "6-Dec-2012"))</f>
         <v>6.944444444444442E-2</v>
       </c>
-      <c r="F161" s="3">
-        <v>1</v>
-      </c>
       <c r="G161" s="3">
         <v>1</v>
       </c>
@@ -5732,8 +6215,11 @@
       <c r="I161" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J161" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>45</v>
       </c>
@@ -5747,12 +6233,12 @@
         <v>0</v>
       </c>
       <c r="E162" s="3">
+        <v>0</v>
+      </c>
+      <c r="F162" s="3">
         <f t="shared" si="3"/>
         <v>6.944444444444442E-2</v>
       </c>
-      <c r="F162" s="3">
-        <v>1</v>
-      </c>
       <c r="G162" s="3">
         <v>1</v>
       </c>
@@ -5762,8 +6248,11 @@
       <c r="I162" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J162" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>45</v>
       </c>
@@ -5777,12 +6266,12 @@
         <v>0</v>
       </c>
       <c r="E163" s="3">
+        <v>0</v>
+      </c>
+      <c r="F163" s="3">
         <f t="shared" si="3"/>
         <v>6.944444444444442E-2</v>
       </c>
-      <c r="F163" s="3">
-        <v>1</v>
-      </c>
       <c r="G163" s="3">
         <v>1</v>
       </c>
@@ -5792,8 +6281,11 @@
       <c r="I163" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J163" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>46</v>
       </c>
@@ -5819,8 +6311,11 @@
       <c r="I164" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J164" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>47</v>
       </c>
@@ -5843,14 +6338,17 @@
         <v>0</v>
       </c>
       <c r="H165" s="3">
+        <v>0</v>
+      </c>
+      <c r="I165" s="3">
         <f>1-(YEARFRAC("1-Jan-2015", "1-Jul-2015"))</f>
         <v>0.5</v>
       </c>
-      <c r="I165" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J165" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>47</v>
       </c>
@@ -5878,8 +6376,11 @@
       <c r="I166" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J166" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>48</v>
       </c>
@@ -5905,32 +6406,35 @@
       <c r="I167" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J167" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B168" s="5"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B169" s="5"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B170" s="5"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B171" s="5"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B172" s="5"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B173" s="5"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B174" s="5"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B175" s="5"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B176" s="5"/>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.45">
